--- a/组织角色列表梳理（新模板）-上海.xlsx
+++ b/组织角色列表梳理（新模板）-上海.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10710"/>
+    <workbookView windowWidth="27700" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="组织列表" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461">
   <si>
     <t>填写说明：
 1、组织编码：无需填写；
@@ -58,15 +58,30 @@
     <t>省公司</t>
   </si>
   <si>
-    <t>呼叫中心</t>
+    <t>东方有线呼叫中心</t>
   </si>
   <si>
     <t>地市公司</t>
   </si>
   <si>
+    <t>东方有线电子渠道中心</t>
+  </si>
+  <si>
     <t>电子渠道</t>
   </si>
   <si>
+    <t>省级电子渠道</t>
+  </si>
+  <si>
+    <t>东方有线市区旗舰营业厅</t>
+  </si>
+  <si>
+    <t>自营厅</t>
+  </si>
+  <si>
+    <t>省级自营厅</t>
+  </si>
+  <si>
     <t>东方有线网络有限公司北区分公司</t>
   </si>
   <si>
@@ -109,7 +124,7 @@
     <t>可乐路营业点</t>
   </si>
   <si>
-    <t>自营厅</t>
+    <t>市级自营厅</t>
   </si>
   <si>
     <t>泾阳路营业点</t>
@@ -759,6 +774,9 @@
     <t>徐云斐</t>
   </si>
   <si>
+    <t>呼叫中心</t>
+  </si>
+  <si>
     <t>麦亮</t>
   </si>
   <si>
@@ -1402,12 +1420,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1445,10 +1463,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1468,7 +1508,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,39 +1522,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1526,22 +1536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1550,23 +1544,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,8 +1567,61 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,19 +1648,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1639,7 +1684,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1651,43 +1762,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1699,43 +1804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,49 +1822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1883,17 +1922,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1903,15 +1936,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1927,30 +1951,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1980,157 +1980,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2170,11 +2209,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2182,69 +2221,78 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2511,56 +2559,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B17" sqref="A1:F299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
-    <col min="1" max="1" width="12.7545454545455" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.0818181818182" style="9" customWidth="1"/>
-    <col min="3" max="3" width="37.5818181818182" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.58181818181818" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.3363636363636" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.0818181818182" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.3363636363636" customWidth="1"/>
-    <col min="8" max="8" width="10.3363636363636" customWidth="1"/>
-    <col min="9" max="9" width="11.7545454545455" customWidth="1"/>
-    <col min="10" max="10" width="12.7545454545455" customWidth="1"/>
-    <col min="13" max="13" width="14.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="12.7589285714286" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.0803571428571" style="9" customWidth="1"/>
+    <col min="3" max="3" width="37.5803571428571" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.58035714285714" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.3392857142857" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.0803571428571" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.3392857142857" customWidth="1"/>
+    <col min="8" max="8" width="10.3392857142857" customWidth="1"/>
+    <col min="9" max="9" width="11.7589285714286" customWidth="1"/>
+    <col min="10" max="10" width="12.7589285714286" customWidth="1"/>
+    <col min="13" max="13" width="14.3392857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="99" customHeight="1" spans="1:6">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" ht="23.5" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2588,10 +2636,10 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="20"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -2603,10 +2651,10 @@
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="20"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -2616,13 +2664,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="9" t="s">
-        <v>14</v>
+      <c r="B7" s="22" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>9</v>
@@ -2631,13 +2682,16 @@
         <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>9</v>
@@ -2648,11 +2702,11 @@
       <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>9</v>
@@ -2666,7 +2720,7 @@
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
@@ -2680,7 +2734,7 @@
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -2694,7 +2748,7 @@
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>9</v>
@@ -2708,7 +2762,7 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
@@ -2722,7 +2776,7 @@
     </row>
     <row r="14" ht="16.4" customHeight="1" spans="2:5">
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>9</v>
@@ -2736,7 +2790,7 @@
     </row>
     <row r="15" ht="15.65" customHeight="1" spans="2:5">
       <c r="B15" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>9</v>
@@ -2750,7 +2804,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>9</v>
@@ -2764,7 +2818,7 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
@@ -2778,7 +2832,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>9</v>
@@ -2792,7 +2846,7 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>9</v>
@@ -2806,632 +2860,635 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4">
         <v>4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4">
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D26" s="4">
         <v>4</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4">
         <v>4</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D30" s="4">
         <v>4</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D31" s="4">
         <v>4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D32" s="4">
         <v>4</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="9" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D33" s="4">
         <v>4</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D34" s="4">
         <v>4</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4">
         <v>4</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D37" s="4">
         <v>4</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D38" s="4">
         <v>4</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D40" s="4">
         <v>4</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D41" s="4">
         <v>4</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D42" s="4">
         <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D43" s="4">
         <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="9" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D44" s="4">
         <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D45" s="4">
         <v>4</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D46" s="4">
         <v>4</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D47" s="4">
         <v>4</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D48" s="4">
         <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D49" s="4">
         <v>4</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D50" s="4">
         <v>4</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" s="4">
         <v>4</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D53" s="4">
         <v>4</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D54" s="4">
         <v>4</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D55" s="4">
         <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D56" s="4">
         <v>4</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D57" s="4">
         <v>4</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D58" s="4">
         <v>4</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D59" s="4">
         <v>4</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D60" s="4">
         <v>4</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D61" s="4">
         <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D62" s="4">
         <v>4</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D63" s="4">
         <v>4</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D64" s="4">
         <v>4</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -3439,587 +3496,587 @@
         <v>70</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D65" s="4">
         <v>4</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D66" s="4">
         <v>4</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="9" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D67" s="4">
         <v>4</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D68" s="4">
         <v>4</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" s="9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D69" s="4">
         <v>4</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="9" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D70" s="4">
         <v>4</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D71" s="4">
         <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="9" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D72" s="4">
         <v>4</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D73" s="4">
         <v>4</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D74" s="4">
         <v>4</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="9" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D75" s="4">
         <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D76" s="4">
         <v>4</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D77" s="4">
         <v>4</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D78" s="4">
         <v>4</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D79" s="4">
         <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="9" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D80" s="4">
         <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D81" s="4">
         <v>4</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D82" s="4">
         <v>4</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D83" s="4">
         <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="9" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D84" s="4">
         <v>4</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D85" s="4">
         <v>4</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D86" s="4">
         <v>4</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D87" s="4">
         <v>4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="2:5">
       <c r="B88" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D88" s="4">
         <v>4</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="2:5">
       <c r="B89" s="9" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D89" s="4">
         <v>4</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="2:5">
       <c r="B90" s="9" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D90" s="4">
         <v>4</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="2:5">
       <c r="B91" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D91" s="4">
         <v>4</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="2:5">
       <c r="B92" s="9" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D92" s="4">
         <v>4</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="2:5">
       <c r="B93" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D93" s="4">
         <v>4</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="2:5">
       <c r="B94" s="9" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D94" s="4">
         <v>4</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D95" s="4">
         <v>4</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D96" s="4">
         <v>4</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" s="9" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D97" s="4">
         <v>4</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D98" s="4">
         <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D99" s="4">
         <v>4</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="2:5">
       <c r="B100" s="9" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D100" s="4">
         <v>4</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="2:5">
       <c r="B101" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D101" s="4">
         <v>4</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="2:5">
       <c r="B102" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D102" s="4">
         <v>4</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" s="9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D103" s="4">
         <v>4</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D104" s="4">
         <v>4</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="2:5">
       <c r="B105" s="9" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D105" s="4">
         <v>4</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="2:5">
       <c r="B106" s="9" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D106" s="4">
         <v>4</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="2:5">
@@ -4027,965 +4084,965 @@
         <v>68</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D107" s="4">
         <v>4</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="2:5">
       <c r="B108" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D108" s="4">
         <v>4</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="2:5">
       <c r="B109" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D109" s="4">
         <v>4</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" s="9" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D110" s="4">
         <v>4</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="2:5">
       <c r="B111" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D111" s="4">
         <v>4</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="2:5">
       <c r="B112" s="9" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D112" s="4">
         <v>4</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" s="9" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D113" s="4">
         <v>4</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D114" s="4">
         <v>4</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="2:5">
       <c r="B115" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D115" s="4">
         <v>4</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="2:5">
       <c r="B116" s="9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D116" s="4">
         <v>4</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="2:5">
       <c r="B117" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D117" s="4">
         <v>4</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="2:5">
       <c r="B118" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D118" s="4">
         <v>4</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="2:5">
       <c r="B119" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D119" s="4">
         <v>4</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="2:5">
       <c r="B120" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D120" s="4">
         <v>4</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="2:5">
       <c r="B121" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D121" s="4">
         <v>4</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="2:5">
       <c r="B122" s="9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D122" s="4">
         <v>4</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="2:5">
       <c r="B123" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D123" s="4">
         <v>4</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="2:5">
       <c r="B124" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D124" s="4">
         <v>4</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="2:5">
       <c r="B125" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D125" s="4">
         <v>4</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="2:5">
       <c r="B126" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D126" s="4">
         <v>4</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="2:5">
       <c r="B127" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D127" s="4">
         <v>4</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D128" s="4">
         <v>4</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="2:5">
       <c r="B129" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D129" s="4">
         <v>4</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="2:5">
       <c r="B130" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D130" s="4">
         <v>4</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="2:5">
       <c r="B131" s="9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D131" s="4">
         <v>4</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="2:5">
       <c r="B132" s="9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D132" s="4">
         <v>4</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D133" s="4">
         <v>4</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="2:5">
       <c r="B134" s="9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D134" s="4">
         <v>4</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="2:5">
       <c r="B135" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D135" s="4">
         <v>4</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="2:5">
       <c r="B136" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D136" s="4">
         <v>4</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="2:5">
       <c r="B137" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D137" s="4">
         <v>4</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="2:5">
       <c r="B138" s="9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D138" s="4">
         <v>4</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="2:5">
       <c r="B139" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D139" s="4">
         <v>4</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="2:5">
       <c r="B140" s="9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D140" s="4">
         <v>4</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="2:5">
       <c r="B141" s="9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D141" s="4">
         <v>4</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="2:5">
       <c r="B142" s="9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D142" s="4">
         <v>4</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="2:5">
       <c r="B143" s="9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D143" s="4">
         <v>4</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="2:5">
       <c r="B144" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D144" s="4">
         <v>4</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="2:5">
       <c r="B145" s="9" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D145" s="4">
         <v>4</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="2:5">
       <c r="B146" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D146" s="4">
         <v>4</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="2:5">
       <c r="B147" s="9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D147" s="4">
         <v>4</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="2:5">
       <c r="B148" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D148" s="4">
         <v>4</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="2:5">
       <c r="B149" s="9" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D149" s="4">
         <v>4</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="2:5">
       <c r="B150" s="9" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D150" s="4">
         <v>4</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="2:5">
       <c r="B151" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D151" s="4">
         <v>4</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="2:5">
       <c r="B152" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D152" s="4">
         <v>4</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="2:5">
       <c r="B153" s="9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D153" s="4">
         <v>4</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="2:5">
       <c r="B154" s="9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D154" s="4">
         <v>4</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="2:5">
       <c r="B155" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D155" s="4">
         <v>4</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="2:5">
       <c r="B156" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D156" s="4">
         <v>4</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="2:5">
       <c r="B157" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D157" s="4">
         <v>4</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="2:5">
       <c r="B158" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D158" s="4">
         <v>4</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="2:5">
       <c r="B159" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D159" s="4">
         <v>4</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="2:5">
       <c r="B160" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D160" s="4">
         <v>4</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="2:5">
       <c r="B161" s="9" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D161" s="4">
         <v>4</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="2:5">
       <c r="B162" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D162" s="4">
         <v>4</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="2:5">
       <c r="B163" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D163" s="4">
         <v>4</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="2:5">
       <c r="B164" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D164" s="4">
         <v>4</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="2:5">
       <c r="B165" s="9" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D165" s="4">
         <v>4</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="2:5">
       <c r="B166" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D166" s="4">
         <v>4</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="2:5">
       <c r="B167" s="9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D167" s="4">
         <v>4</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="2:5">
       <c r="B168" s="9" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D168" s="4">
         <v>4</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="2:5">
       <c r="B169" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D169" s="4">
         <v>4</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="2:5">
       <c r="B170" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D170" s="4">
         <v>4</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="2:5">
       <c r="B171" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D171" s="4">
         <v>4</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="2:5">
       <c r="B172" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D172" s="4">
         <v>4</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="2:5">
       <c r="B173" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D173" s="4">
         <v>4</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="2:5">
       <c r="B174" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D174" s="4">
         <v>4</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="175" spans="2:5">
       <c r="B175" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D175" s="4">
         <v>4</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="2:5">
@@ -4993,419 +5050,419 @@
         <v>129</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D176" s="4">
         <v>4</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="2:5">
       <c r="B177" s="9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D177" s="4">
         <v>4</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="2:5">
       <c r="B178" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D178" s="4">
         <v>4</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="2:5">
       <c r="B179" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D179" s="4">
         <v>4</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="2:5">
       <c r="B180" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D180" s="4">
         <v>4</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="2:5">
       <c r="B181" s="9" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D181" s="4">
         <v>4</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="2:5">
       <c r="B182" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D182" s="4">
         <v>4</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="2:5">
       <c r="B183" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D183" s="4">
         <v>4</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="2:5">
       <c r="B184" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D184" s="4">
         <v>4</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="2:5">
       <c r="B185" s="9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D185" s="4">
         <v>4</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="2:5">
       <c r="B186" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D186" s="4">
         <v>4</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="2:5">
       <c r="B187" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D187" s="4">
         <v>4</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="2:5">
       <c r="B188" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D188" s="4">
         <v>4</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="2:5">
       <c r="B189" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D189" s="4">
         <v>4</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="2:5">
       <c r="B190" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D190" s="4">
         <v>4</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="2:5">
       <c r="B191" s="9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D191" s="4">
         <v>4</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="2:5">
       <c r="B192" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D192" s="4">
         <v>4</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="2:5">
       <c r="B193" s="9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D193" s="4">
         <v>4</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="2:5">
       <c r="B194" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D194" s="4">
         <v>4</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="2:5">
       <c r="B195" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D195" s="4">
         <v>4</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="2:5">
       <c r="B196" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D196" s="4">
         <v>4</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="2:5">
       <c r="B197" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D197" s="4">
         <v>4</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="2:5">
       <c r="B198" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D198" s="4">
         <v>4</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="2:5">
       <c r="B199" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D199" s="4">
         <v>4</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="2:5">
       <c r="B200" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D200" s="4">
         <v>4</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="2:5">
       <c r="B201" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D201" s="4">
         <v>4</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="2:5">
       <c r="B202" s="9" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D202" s="4">
         <v>4</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="2:5">
       <c r="B203" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D203" s="4">
         <v>4</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="2:5">
       <c r="B204" s="9" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D204" s="4">
         <v>4</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="2:5">
       <c r="B205" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D205" s="4">
         <v>4</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="2:5">
@@ -5413,55 +5470,55 @@
         <v>149</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D206" s="4">
         <v>4</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="2:5">
       <c r="B207" s="9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D207" s="4">
         <v>4</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="2:5">
       <c r="B208" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D208" s="4">
         <v>4</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="2:5">
       <c r="B209" s="9" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D209" s="4">
         <v>4</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="2:5">
@@ -5469,125 +5526,125 @@
         <v>150</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D210" s="4">
         <v>4</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="2:5">
       <c r="B211" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D211" s="4">
         <v>4</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="2:5">
       <c r="B212" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D212" s="4">
         <v>4</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="213" spans="2:5">
       <c r="B213" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D213" s="4">
         <v>4</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="214" spans="2:5">
       <c r="B214" s="9" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D214" s="4">
         <v>4</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="2:5">
       <c r="B215" s="9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D215" s="4">
         <v>4</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="2:5">
       <c r="B216" s="9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D216" s="4">
         <v>4</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="2:5">
       <c r="B217" s="9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D217" s="4">
         <v>4</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="2:5">
       <c r="B218" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C218" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D218" s="4">
         <v>4</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="2:5">
@@ -5595,55 +5652,55 @@
         <v>159</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D219" s="4">
         <v>4</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="2:5">
       <c r="B220" s="9" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D220" s="4">
         <v>4</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="2:5">
       <c r="B221" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D221" s="4">
         <v>4</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="2:5">
       <c r="B222" s="9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D222" s="4">
         <v>4</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="2:5">
@@ -5651,1063 +5708,1077 @@
         <v>161</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D223" s="4">
         <v>4</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="2:5">
       <c r="B224" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D224" s="4">
         <v>4</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="2:5">
       <c r="B225" s="9" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D225" s="4">
         <v>4</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="2:5">
       <c r="B226" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D226" s="4">
         <v>4</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="2:5">
       <c r="B227" s="9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D227" s="4">
         <v>4</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="2:5">
       <c r="B228" s="9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D228" s="4">
         <v>4</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="2:5">
       <c r="B229" s="9" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D229" s="4">
         <v>4</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="2:5">
       <c r="B230" s="9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D230" s="4">
         <v>4</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="2:5">
       <c r="B231" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C231" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D231" s="4">
         <v>4</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" spans="2:5">
       <c r="B232" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D232" s="4">
         <v>4</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="2:5">
       <c r="B233" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D233" s="4">
         <v>4</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="2:5">
       <c r="B234" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C234" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D234" s="4">
         <v>4</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="2:5">
       <c r="B235" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C235" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D235" s="4">
         <v>4</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236" spans="2:5">
       <c r="B236" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D236" s="4">
         <v>4</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="2:5">
       <c r="B237" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D237" s="4">
         <v>4</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="238" spans="2:5">
       <c r="B238" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C238" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D238" s="4">
         <v>4</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="2:5">
       <c r="B239" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D239" s="4">
         <v>4</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="2:5">
       <c r="B240" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D240" s="4">
         <v>4</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="2:5">
       <c r="B241" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D241" s="4">
         <v>4</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="2:5">
       <c r="B242" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C242" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D242" s="4">
         <v>4</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="2:5">
       <c r="B243" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D243" s="4">
         <v>4</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="2:5">
       <c r="B244" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D244" s="4">
         <v>4</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="2:5">
       <c r="B245" s="9" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D245" s="4">
         <v>4</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="2:5">
       <c r="B246" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C246" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D246" s="4">
         <v>4</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="2:5">
       <c r="B247" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D247" s="4">
         <v>4</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="2:5">
       <c r="B248" s="9" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D248" s="4">
         <v>4</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="2:5">
       <c r="B249" s="9" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D249" s="4">
         <v>4</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="2:5">
       <c r="B250" s="9" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C250" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D250" s="4">
         <v>4</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="2:5">
       <c r="B251" s="9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D251" s="4">
         <v>4</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="2:5">
       <c r="B252" s="9" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D252" s="4">
         <v>4</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="2:5">
       <c r="B253" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D253" s="4">
         <v>4</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="2:5">
       <c r="B254" s="9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D254" s="4">
         <v>4</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="2:5">
       <c r="B255" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D255" s="4">
         <v>4</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="2:5">
       <c r="B256" s="9" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D256" s="4">
         <v>4</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="2:5">
       <c r="B257" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D257" s="4">
         <v>4</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="2:5">
       <c r="B258" s="9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C258" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D258" s="4">
         <v>4</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="2:5">
       <c r="B259" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D259" s="4">
         <v>4</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="2:5">
       <c r="B260" s="9" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C260" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D260" s="4">
         <v>4</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="2:5">
       <c r="B261" s="9" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C261" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D261" s="4">
         <v>4</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="2:5">
       <c r="B262" s="9" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C262" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D262" s="4">
         <v>4</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" spans="2:5">
       <c r="B263" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D263" s="4">
         <v>4</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="2:5">
       <c r="B264" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D264" s="4">
         <v>4</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="2:5">
       <c r="B265" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C265" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D265" s="4">
         <v>4</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="2:5">
       <c r="B266" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C266" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D266" s="4">
         <v>4</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" spans="2:5">
       <c r="B267" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D267" s="4">
         <v>4</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="2:5">
       <c r="B268" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D268" s="4">
         <v>4</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="2:5">
       <c r="B269" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D269" s="4">
         <v>4</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="2:5">
       <c r="B270" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C270" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D270" s="4">
         <v>4</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="2:5">
       <c r="B271" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D271" s="4">
         <v>4</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" spans="2:5">
       <c r="B272" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D272" s="4">
         <v>4</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="273" spans="2:5">
       <c r="B273" s="9" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D273" s="4">
         <v>4</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="274" spans="2:5">
       <c r="B274" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D274" s="4">
         <v>4</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275" spans="2:5">
       <c r="B275" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D275" s="4">
         <v>4</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="2:5">
       <c r="B276" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D276" s="4">
         <v>4</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" spans="2:5">
       <c r="B277" s="9" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D277" s="4">
         <v>4</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" spans="2:5">
       <c r="B278" s="9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D278" s="4">
         <v>4</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" spans="2:5">
       <c r="B279" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D279" s="4">
         <v>4</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" spans="2:5">
       <c r="B280" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D280" s="4">
         <v>4</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" spans="2:5">
       <c r="B281" s="9" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C281" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D281" s="4">
         <v>4</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282" spans="2:5">
       <c r="B282" s="9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C282" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D282" s="4">
         <v>4</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="2:5">
       <c r="B283" s="9" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D283" s="4">
         <v>4</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" spans="2:5">
       <c r="B284" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D284" s="4">
         <v>4</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="2:5">
       <c r="B285" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C285" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D285" s="4">
         <v>4</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286" spans="2:5">
       <c r="B286" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D286" s="4">
         <v>4</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="287" spans="2:5">
       <c r="B287" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D287" s="4">
         <v>4</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="2:5">
       <c r="B288" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C288" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D288" s="4">
         <v>4</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="2:5">
       <c r="B289" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D289" s="4">
         <v>4</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" spans="2:5">
       <c r="B290" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D290" s="4">
         <v>4</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="2:5">
       <c r="B291" s="9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D291" s="4">
         <v>4</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" spans="2:5">
       <c r="B292" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D292" s="4">
         <v>4</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" spans="2:5">
       <c r="B293" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D293" s="4">
         <v>4</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" spans="2:5">
       <c r="B294" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D294" s="4">
         <v>4</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" spans="2:5">
       <c r="B295" s="9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D295" s="4">
         <v>4</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296" spans="2:5">
       <c r="B296" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C296" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D296" s="4">
         <v>4</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="2:5">
       <c r="B297" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C297" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D297" s="4">
         <v>4</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" spans="2:5">
       <c r="B298" s="9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D298" s="4">
         <v>4</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5">
+      <c r="B299" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D299" s="4">
+        <v>4</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -6715,18 +6786,18 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E6 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44 E45 E46 E47 E48 E49 E50 E51 E52 E53 E54 E55 E56 E57 E58 E59 E60 E61 E62 E63 E64 E65 E66 E67 E68 E69 E70 E71 E72 E73 E74 E75 E76 E77 E78 E79 E80 E81 E82 E83 E84 E85 E86 E87 E88 E89 E90 E91 E92 E93 E94 E95 E96 E97 E98 E99 E100 E101 E102 E103 E104 E105 E106 E107 E108 E109 E110 E111 E112 E113 E114 E115 E116 E117 E118 E119 E120 E121 E122 E123 E124 E125 E126 E127 E128 E129 E130 E131 E132 E133 E134 E135 E136 E137 E138 E139 E140 E141 E142 E143 E144 E145 E146 E147 E148 E149 E150 E151 E152 E153 E154 E155 E156 E157 E158 E159 E160 E161 E162 E163 E164 E165 E166 E167 E168 E169 E170 E171 E172 E173 E174 E175 E176 E177 E178 E179 E180 E181 E182 E183 E184 E185 E186 E187 E188 E189 E190 E191 E192 E193 E194 E195 E196 E197 E198 E199 E200 E201 E202 E203 E204 E205 E206 E207 E208 E209 E210 E211 E212 E213 E214 E215 E216 E217 E218 E219 E220 E221 E222 E223 E224 E225 E226 E227 E228 E229 E230 E231 E232 E233 E234 E235 E236 E237 E238 E239 E240 E241 E242 E243 E244 E245 E246 E247 E248 E249 E250 E251 E252 E253 E254 E255 E256 E257 E258 E259 E260 E261 E262 E263 E264 E265 E266 E267 E268 E269 E270 E271 E272 E273 E274 E275 E276 E277 E278 E279 E280 E281 E282 E283 E284 E285 E286 E287 E288 E289 E290 E291 E292 E293 E294 E295 E296 E297 E298 E1:E3 E7:E19 E299:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E299 E300:E1048576">
       <formula1>"集团,省公司,地市公司,分公司,自营厅,社会渠道,电子渠道"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F162"/>
   <sheetViews>
@@ -6734,18 +6805,18 @@
       <selection activeCell="C17" sqref="C17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.7545454545455" customWidth="1"/>
-    <col min="2" max="2" width="15.2545454545455" customWidth="1"/>
-    <col min="3" max="3" width="22.3363636363636" customWidth="1"/>
+    <col min="1" max="1" width="11.7589285714286" customWidth="1"/>
+    <col min="2" max="2" width="15.2589285714286" customWidth="1"/>
+    <col min="3" max="3" width="22.3392857142857" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="10.5818181818182" customWidth="1"/>
+    <col min="5" max="5" width="10.5803571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="94" customHeight="1" spans="1:6">
       <c r="A1" s="15" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6755,32 +6826,32 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="18" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
@@ -6788,13 +6859,13 @@
     <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="18" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -6802,13 +6873,13 @@
     <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="18" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -6816,13 +6887,13 @@
     <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="18" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -6830,13 +6901,13 @@
     <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="18" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -6844,13 +6915,13 @@
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="18" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -6858,13 +6929,13 @@
     <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -6872,13 +6943,13 @@
     <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="18" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -6886,13 +6957,13 @@
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="18" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
@@ -6900,13 +6971,13 @@
     <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="18" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
@@ -6914,13 +6985,13 @@
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="18" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -6928,13 +6999,13 @@
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="18" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -6942,13 +7013,13 @@
     <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="18" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -6956,13 +7027,13 @@
     <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="18" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
@@ -6970,13 +7041,13 @@
     <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="18" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>11</v>
+        <v>248</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -6984,13 +7055,13 @@
     <row r="18" spans="1:6">
       <c r="A18" s="4"/>
       <c r="B18" s="18" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -6998,13 +7069,13 @@
     <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="18" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -7012,13 +7083,13 @@
     <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="18" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -7026,13 +7097,13 @@
     <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="18" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -7040,13 +7111,13 @@
     <row r="22" spans="1:6">
       <c r="A22" s="9"/>
       <c r="B22" s="18" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
@@ -7054,13 +7125,13 @@
     <row r="23" spans="1:6">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -7068,13 +7139,13 @@
     <row r="24" spans="1:6">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -7082,13 +7153,13 @@
     <row r="25" spans="1:6">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -7096,13 +7167,13 @@
     <row r="26" spans="1:6">
       <c r="A26" s="9"/>
       <c r="B26" s="9" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -7110,13 +7181,13 @@
     <row r="27" spans="1:6">
       <c r="A27" s="9"/>
       <c r="B27" s="9" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -7124,13 +7195,13 @@
     <row r="28" spans="1:6">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -7138,13 +7209,13 @@
     <row r="29" spans="1:6">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -7152,13 +7223,13 @@
     <row r="30" spans="1:6">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -7166,13 +7237,13 @@
     <row r="31" spans="1:6">
       <c r="A31" s="9"/>
       <c r="B31" s="9" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -7180,13 +7251,13 @@
     <row r="32" spans="1:6">
       <c r="A32" s="9"/>
       <c r="B32" s="9" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -7194,13 +7265,13 @@
     <row r="33" spans="1:6">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -7208,13 +7279,13 @@
     <row r="34" spans="1:6">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -7222,13 +7293,13 @@
     <row r="35" spans="1:6">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -7236,13 +7307,13 @@
     <row r="36" spans="1:6">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -7250,13 +7321,13 @@
     <row r="37" spans="1:6">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -7264,13 +7335,13 @@
     <row r="38" spans="1:6">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -7278,13 +7349,13 @@
     <row r="39" spans="1:6">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -7292,13 +7363,13 @@
     <row r="40" spans="1:6">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -7306,13 +7377,13 @@
     <row r="41" spans="1:6">
       <c r="A41" s="9"/>
       <c r="B41" s="9" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -7320,13 +7391,13 @@
     <row r="42" spans="1:6">
       <c r="A42" s="9"/>
       <c r="B42" s="9" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -7334,13 +7405,13 @@
     <row r="43" spans="1:6">
       <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -7348,13 +7419,13 @@
     <row r="44" spans="1:6">
       <c r="A44" s="9"/>
       <c r="B44" s="9" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -7362,13 +7433,13 @@
     <row r="45" spans="1:6">
       <c r="A45" s="9"/>
       <c r="B45" s="9" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -7376,13 +7447,13 @@
     <row r="46" spans="1:6">
       <c r="A46" s="9"/>
       <c r="B46" s="9" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -7390,13 +7461,13 @@
     <row r="47" spans="1:6">
       <c r="A47" s="9"/>
       <c r="B47" s="9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -7404,13 +7475,13 @@
     <row r="48" spans="1:6">
       <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -7418,13 +7489,13 @@
     <row r="49" spans="1:6">
       <c r="A49" s="9"/>
       <c r="B49" s="9" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -7432,13 +7503,13 @@
     <row r="50" spans="1:6">
       <c r="A50" s="9"/>
       <c r="B50" s="9" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -7446,13 +7517,13 @@
     <row r="51" spans="1:6">
       <c r="A51" s="9"/>
       <c r="B51" s="9" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -7460,13 +7531,13 @@
     <row r="52" spans="1:6">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -7474,13 +7545,13 @@
     <row r="53" spans="1:6">
       <c r="A53" s="9"/>
       <c r="B53" s="9" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -7488,13 +7559,13 @@
     <row r="54" spans="1:6">
       <c r="A54" s="9"/>
       <c r="B54" s="9" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -7502,13 +7573,13 @@
     <row r="55" spans="1:6">
       <c r="A55" s="9"/>
       <c r="B55" s="9" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -7516,13 +7587,13 @@
     <row r="56" spans="1:6">
       <c r="A56" s="9"/>
       <c r="B56" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -7530,13 +7601,13 @@
     <row r="57" spans="1:6">
       <c r="A57" s="9"/>
       <c r="B57" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -7544,13 +7615,13 @@
     <row r="58" spans="1:6">
       <c r="A58" s="9"/>
       <c r="B58" s="9" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -7558,13 +7629,13 @@
     <row r="59" spans="1:6">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -7572,13 +7643,13 @@
     <row r="60" spans="1:6">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -7586,13 +7657,13 @@
     <row r="61" spans="1:6">
       <c r="A61" s="9"/>
       <c r="B61" s="9" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -7600,13 +7671,13 @@
     <row r="62" spans="1:6">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -7614,13 +7685,13 @@
     <row r="63" spans="1:6">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -7628,13 +7699,13 @@
     <row r="64" spans="1:6">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -7642,13 +7713,13 @@
     <row r="65" spans="1:6">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -7656,13 +7727,13 @@
     <row r="66" spans="1:6">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -7670,13 +7741,13 @@
     <row r="67" spans="1:6">
       <c r="A67" s="9"/>
       <c r="B67" s="9" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -7684,13 +7755,13 @@
     <row r="68" spans="1:6">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -7698,13 +7769,13 @@
     <row r="69" spans="1:6">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -7712,13 +7783,13 @@
     <row r="70" spans="1:6">
       <c r="A70" s="9"/>
       <c r="B70" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -7726,13 +7797,13 @@
     <row r="71" spans="1:6">
       <c r="A71" s="9"/>
       <c r="B71" s="9" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -7740,13 +7811,13 @@
     <row r="72" spans="1:6">
       <c r="A72" s="9"/>
       <c r="B72" s="9" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -7754,13 +7825,13 @@
     <row r="73" spans="1:6">
       <c r="A73" s="9"/>
       <c r="B73" s="9" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -7768,13 +7839,13 @@
     <row r="74" spans="1:6">
       <c r="A74" s="9"/>
       <c r="B74" s="9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -7782,13 +7853,13 @@
     <row r="75" spans="1:6">
       <c r="A75" s="9"/>
       <c r="B75" s="9" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -7796,13 +7867,13 @@
     <row r="76" spans="1:6">
       <c r="A76" s="9"/>
       <c r="B76" s="9" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -7810,13 +7881,13 @@
     <row r="77" spans="1:6">
       <c r="A77" s="9"/>
       <c r="B77" s="9" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -7824,13 +7895,13 @@
     <row r="78" spans="1:6">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
@@ -7838,13 +7909,13 @@
     <row r="79" spans="1:6">
       <c r="A79" s="9"/>
       <c r="B79" s="9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -7852,13 +7923,13 @@
     <row r="80" spans="1:6">
       <c r="A80" s="9"/>
       <c r="B80" s="9" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -7866,13 +7937,13 @@
     <row r="81" spans="1:6">
       <c r="A81" s="9"/>
       <c r="B81" s="9" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -7880,13 +7951,13 @@
     <row r="82" spans="1:6">
       <c r="A82" s="9"/>
       <c r="B82" s="9" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -7894,13 +7965,13 @@
     <row r="83" spans="1:6">
       <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -7908,13 +7979,13 @@
     <row r="84" spans="1:6">
       <c r="A84" s="9"/>
       <c r="B84" s="9" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -7922,13 +7993,13 @@
     <row r="85" spans="1:6">
       <c r="A85" s="9"/>
       <c r="B85" s="9" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -7936,13 +8007,13 @@
     <row r="86" spans="1:6">
       <c r="A86" s="9"/>
       <c r="B86" s="9" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -7950,13 +8021,13 @@
     <row r="87" spans="1:6">
       <c r="A87" s="9"/>
       <c r="B87" s="9" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -7964,13 +8035,13 @@
     <row r="88" spans="1:6">
       <c r="A88" s="9"/>
       <c r="B88" s="9" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -7978,13 +8049,13 @@
     <row r="89" spans="1:6">
       <c r="A89" s="9"/>
       <c r="B89" s="9" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
@@ -7992,13 +8063,13 @@
     <row r="90" spans="1:6">
       <c r="A90" s="9"/>
       <c r="B90" s="9" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -8006,13 +8077,13 @@
     <row r="91" spans="1:6">
       <c r="A91" s="9"/>
       <c r="B91" s="9" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -8020,13 +8091,13 @@
     <row r="92" spans="1:6">
       <c r="A92" s="9"/>
       <c r="B92" s="9" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -8034,13 +8105,13 @@
     <row r="93" spans="1:6">
       <c r="A93" s="9"/>
       <c r="B93" s="9" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -8048,13 +8119,13 @@
     <row r="94" spans="1:6">
       <c r="A94" s="9"/>
       <c r="B94" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -8062,13 +8133,13 @@
     <row r="95" spans="1:6">
       <c r="A95" s="9"/>
       <c r="B95" s="9" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -8076,13 +8147,13 @@
     <row r="96" spans="1:6">
       <c r="A96" s="9"/>
       <c r="B96" s="9" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -8090,13 +8161,13 @@
     <row r="97" spans="1:6">
       <c r="A97" s="9"/>
       <c r="B97" s="9" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -8104,13 +8175,13 @@
     <row r="98" spans="1:6">
       <c r="A98" s="9"/>
       <c r="B98" s="9" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
@@ -8118,13 +8189,13 @@
     <row r="99" spans="1:6">
       <c r="A99" s="9"/>
       <c r="B99" s="9" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
@@ -8132,13 +8203,13 @@
     <row r="100" spans="1:6">
       <c r="A100" s="9"/>
       <c r="B100" s="9" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
@@ -8146,13 +8217,13 @@
     <row r="101" spans="1:6">
       <c r="A101" s="9"/>
       <c r="B101" s="9" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
@@ -8160,13 +8231,13 @@
     <row r="102" spans="1:6">
       <c r="A102" s="9"/>
       <c r="B102" s="9" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9"/>
@@ -8174,13 +8245,13 @@
     <row r="103" spans="1:6">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
@@ -8188,13 +8259,13 @@
     <row r="104" spans="1:6">
       <c r="A104" s="9"/>
       <c r="B104" s="9" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9"/>
@@ -8202,13 +8273,13 @@
     <row r="105" spans="1:6">
       <c r="A105" s="9"/>
       <c r="B105" s="9" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="9"/>
@@ -8216,13 +8287,13 @@
     <row r="106" spans="1:6">
       <c r="A106" s="9"/>
       <c r="B106" s="9" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
@@ -8230,13 +8301,13 @@
     <row r="107" spans="1:6">
       <c r="A107" s="9"/>
       <c r="B107" s="9" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9"/>
@@ -8244,13 +8315,13 @@
     <row r="108" spans="1:6">
       <c r="A108" s="9"/>
       <c r="B108" s="9" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="9"/>
@@ -8258,13 +8329,13 @@
     <row r="109" spans="1:6">
       <c r="A109" s="9"/>
       <c r="B109" s="9" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
@@ -8272,13 +8343,13 @@
     <row r="110" spans="1:6">
       <c r="A110" s="9"/>
       <c r="B110" s="9" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="9"/>
@@ -8286,13 +8357,13 @@
     <row r="111" spans="1:6">
       <c r="A111" s="9"/>
       <c r="B111" s="9" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="9"/>
@@ -8300,13 +8371,13 @@
     <row r="112" spans="1:6">
       <c r="A112" s="9"/>
       <c r="B112" s="9" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
@@ -8314,13 +8385,13 @@
     <row r="113" spans="1:6">
       <c r="A113" s="9"/>
       <c r="B113" s="9" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
@@ -8328,13 +8399,13 @@
     <row r="114" spans="1:6">
       <c r="A114" s="9"/>
       <c r="B114" s="9" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
@@ -8342,13 +8413,13 @@
     <row r="115" spans="1:6">
       <c r="A115" s="9"/>
       <c r="B115" s="9" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9"/>
@@ -8356,13 +8427,13 @@
     <row r="116" spans="1:6">
       <c r="A116" s="9"/>
       <c r="B116" s="9" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9"/>
@@ -8370,13 +8441,13 @@
     <row r="117" spans="1:6">
       <c r="A117" s="9"/>
       <c r="B117" s="9" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
@@ -8384,13 +8455,13 @@
     <row r="118" spans="1:6">
       <c r="A118" s="9"/>
       <c r="B118" s="9" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
@@ -8398,13 +8469,13 @@
     <row r="119" spans="1:6">
       <c r="A119" s="9"/>
       <c r="B119" s="9" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
@@ -8412,13 +8483,13 @@
     <row r="120" spans="1:6">
       <c r="A120" s="9"/>
       <c r="B120" s="9" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
@@ -8426,13 +8497,13 @@
     <row r="121" spans="1:6">
       <c r="A121" s="9"/>
       <c r="B121" s="9" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
@@ -8440,13 +8511,13 @@
     <row r="122" spans="1:6">
       <c r="A122" s="9"/>
       <c r="B122" s="9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -8454,13 +8525,13 @@
     <row r="123" spans="1:6">
       <c r="A123" s="9"/>
       <c r="B123" s="9" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
@@ -8468,13 +8539,13 @@
     <row r="124" spans="1:6">
       <c r="A124" s="9"/>
       <c r="B124" s="9" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
@@ -8482,13 +8553,13 @@
     <row r="125" spans="1:6">
       <c r="A125" s="9"/>
       <c r="B125" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
@@ -8496,13 +8567,13 @@
     <row r="126" spans="1:6">
       <c r="A126" s="9"/>
       <c r="B126" s="9" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
@@ -8510,13 +8581,13 @@
     <row r="127" spans="1:6">
       <c r="A127" s="9"/>
       <c r="B127" s="9" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
@@ -8524,13 +8595,13 @@
     <row r="128" spans="1:6">
       <c r="A128" s="9"/>
       <c r="B128" s="9" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E128" s="9"/>
       <c r="F128" s="9"/>
@@ -8538,13 +8609,13 @@
     <row r="129" spans="1:6">
       <c r="A129" s="9"/>
       <c r="B129" s="9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9"/>
@@ -8552,13 +8623,13 @@
     <row r="130" spans="1:6">
       <c r="A130" s="9"/>
       <c r="B130" s="9" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9"/>
@@ -8566,13 +8637,13 @@
     <row r="131" spans="1:6">
       <c r="A131" s="9"/>
       <c r="B131" s="9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9"/>
@@ -8580,13 +8651,13 @@
     <row r="132" spans="1:6">
       <c r="A132" s="9"/>
       <c r="B132" s="9" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9"/>
@@ -8594,13 +8665,13 @@
     <row r="133" spans="1:6">
       <c r="A133" s="9"/>
       <c r="B133" s="9" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
@@ -8608,13 +8679,13 @@
     <row r="134" spans="1:6">
       <c r="A134" s="9"/>
       <c r="B134" s="9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -8622,13 +8693,13 @@
     <row r="135" spans="1:6">
       <c r="A135" s="9"/>
       <c r="B135" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
@@ -8636,13 +8707,13 @@
     <row r="136" spans="1:6">
       <c r="A136" s="9"/>
       <c r="B136" s="9" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -8650,13 +8721,13 @@
     <row r="137" spans="1:6">
       <c r="A137" s="9"/>
       <c r="B137" s="9" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
@@ -8664,13 +8735,13 @@
     <row r="138" spans="1:6">
       <c r="A138" s="9"/>
       <c r="B138" s="9" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -8678,13 +8749,13 @@
     <row r="139" spans="1:6">
       <c r="A139" s="9"/>
       <c r="B139" s="9" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
@@ -8692,13 +8763,13 @@
     <row r="140" spans="1:6">
       <c r="A140" s="9"/>
       <c r="B140" s="9" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -8706,13 +8777,13 @@
     <row r="141" spans="1:6">
       <c r="A141" s="9"/>
       <c r="B141" s="9" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -8720,13 +8791,13 @@
     <row r="142" spans="1:6">
       <c r="A142" s="9"/>
       <c r="B142" s="9" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -8734,13 +8805,13 @@
     <row r="143" spans="1:6">
       <c r="A143" s="9"/>
       <c r="B143" s="9" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -8748,13 +8819,13 @@
     <row r="144" spans="1:6">
       <c r="A144" s="9"/>
       <c r="B144" s="9" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -8762,13 +8833,13 @@
     <row r="145" spans="1:6">
       <c r="A145" s="9"/>
       <c r="B145" s="9" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
@@ -8776,13 +8847,13 @@
     <row r="146" spans="1:6">
       <c r="A146" s="9"/>
       <c r="B146" s="9" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
@@ -8790,13 +8861,13 @@
     <row r="147" spans="1:6">
       <c r="A147" s="9"/>
       <c r="B147" s="9" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -8804,13 +8875,13 @@
     <row r="148" spans="1:6">
       <c r="A148" s="9"/>
       <c r="B148" s="9" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -8818,13 +8889,13 @@
     <row r="149" spans="1:6">
       <c r="A149" s="9"/>
       <c r="B149" s="9" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9"/>
@@ -8832,13 +8903,13 @@
     <row r="150" spans="1:6">
       <c r="A150" s="9"/>
       <c r="B150" s="9" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
@@ -8846,13 +8917,13 @@
     <row r="151" spans="1:6">
       <c r="A151" s="9"/>
       <c r="B151" s="9" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9"/>
@@ -8860,13 +8931,13 @@
     <row r="152" spans="1:6">
       <c r="A152" s="9"/>
       <c r="B152" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9"/>
@@ -8874,13 +8945,13 @@
     <row r="153" spans="1:6">
       <c r="A153" s="9"/>
       <c r="B153" s="9" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
@@ -8888,13 +8959,13 @@
     <row r="154" spans="1:6">
       <c r="A154" s="9"/>
       <c r="B154" s="9" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
@@ -8902,13 +8973,13 @@
     <row r="155" spans="1:6">
       <c r="A155" s="9"/>
       <c r="B155" s="9" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9"/>
@@ -8916,13 +8987,13 @@
     <row r="156" spans="1:6">
       <c r="A156" s="9"/>
       <c r="B156" s="9" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E156" s="9"/>
       <c r="F156" s="9"/>
@@ -8930,13 +9001,13 @@
     <row r="157" spans="1:6">
       <c r="A157" s="9"/>
       <c r="B157" s="9" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9"/>
@@ -8944,13 +9015,13 @@
     <row r="158" spans="1:6">
       <c r="A158" s="9"/>
       <c r="B158" s="9" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9"/>
@@ -8958,13 +9029,13 @@
     <row r="159" spans="1:6">
       <c r="A159" s="9"/>
       <c r="B159" s="9" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9"/>
@@ -8972,13 +9043,13 @@
     <row r="160" spans="1:6">
       <c r="A160" s="9"/>
       <c r="B160" s="9" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
@@ -8986,13 +9057,13 @@
     <row r="161" spans="1:6">
       <c r="A161" s="9"/>
       <c r="B161" s="9" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E161" s="9"/>
       <c r="F161" s="9"/>
@@ -9000,13 +9071,13 @@
     <row r="162" spans="1:6">
       <c r="A162" s="9"/>
       <c r="B162" s="9" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E162" s="9"/>
       <c r="F162" s="9"/>
@@ -9018,14 +9089,14 @@
   <hyperlinks>
     <hyperlink ref="D2" location="角色列表!A1" display="角色"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -9033,18 +9104,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.7545454545455" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.7589285714286" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="9" customWidth="1"/>
-    <col min="3" max="4" width="14.7545454545455" style="9" customWidth="1"/>
-    <col min="5" max="5" width="64.6636363636364" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.7545454545455" style="9" customWidth="1"/>
+    <col min="3" max="4" width="14.7589285714286" style="9" customWidth="1"/>
+    <col min="5" max="5" width="64.6607142857143" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.7589285714286" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="57" customHeight="1" spans="1:6">
       <c r="A1" s="11" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -9054,21 +9125,21 @@
     </row>
     <row r="2" ht="23.5" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F2" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9077,33 +9148,33 @@
         <v>1001</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>1002</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>229</v>
+      <c r="B4" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9111,30 +9182,30 @@
         <v>1003</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:F42"/>
   <sheetViews>
@@ -9142,20 +9213,20 @@
       <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="7.58181818181818" customWidth="1"/>
-    <col min="2" max="2" width="14.2545454545455" customWidth="1"/>
-    <col min="3" max="3" width="29.3363636363636" customWidth="1"/>
-    <col min="4" max="4" width="18.2545454545455" customWidth="1"/>
-    <col min="5" max="5" width="14.0818181818182" customWidth="1"/>
-    <col min="6" max="6" width="15.9181818181818" customWidth="1"/>
-    <col min="7" max="7" width="59.5818181818182" customWidth="1"/>
+    <col min="1" max="1" width="7.58035714285714" customWidth="1"/>
+    <col min="2" max="2" width="14.2589285714286" customWidth="1"/>
+    <col min="3" max="3" width="29.3392857142857" customWidth="1"/>
+    <col min="4" max="4" width="18.2589285714286" customWidth="1"/>
+    <col min="5" max="5" width="14.0803571428571" customWidth="1"/>
+    <col min="6" max="6" width="15.9196428571429" customWidth="1"/>
+    <col min="7" max="7" width="59.5803571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.75" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9165,22 +9236,22 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="17.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9188,13 +9259,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -9205,10 +9276,10 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -9219,10 +9290,10 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="4" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -9233,10 +9304,10 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="4" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -9247,10 +9318,10 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -9261,10 +9332,10 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -9274,13 +9345,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -9291,10 +9362,10 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -9304,16 +9375,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -9323,16 +9394,16 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -9341,13 +9412,13 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="4" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -9357,16 +9428,16 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -9375,13 +9446,13 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -9391,16 +9462,16 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -9409,13 +9480,13 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="4" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -9425,13 +9496,13 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="4" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -9441,13 +9512,13 @@
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="4" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -9456,13 +9527,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -9473,13 +9544,13 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -9489,11 +9560,11 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="8" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -9503,12 +9574,12 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="8" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9517,11 +9588,11 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="8" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F24" s="4"/>
     </row>
@@ -9531,13 +9602,13 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="8" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F25" s="4"/>
     </row>
@@ -9547,11 +9618,11 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="8" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F26" s="4"/>
     </row>
@@ -9561,10 +9632,10 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="4" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -9575,10 +9646,10 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -9589,10 +9660,10 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -9603,16 +9674,16 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9621,16 +9692,16 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9639,16 +9710,16 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="4" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9657,16 +9728,16 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="4" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9675,16 +9746,16 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="4" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9693,16 +9764,16 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9711,16 +9782,16 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="4" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9729,13 +9800,13 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="4" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F37" s="4"/>
     </row>
@@ -9745,10 +9816,10 @@
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="4" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -9758,19 +9829,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -9779,16 +9850,16 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="4" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9797,16 +9868,16 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="4" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9815,16 +9886,16 @@
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -9836,7 +9907,7 @@
     <mergeCell ref="B20:B38"/>
     <mergeCell ref="B39:B42"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
